--- a/Data_Science_in_Python_timetable.xlsx
+++ b/Data_Science_in_Python_timetable.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23023"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwhw260\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\SVW4QDWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3d57\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3573110-09B2-4F2C-91FF-A3445B52E57E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{8B45AE1B-C5D4-482D-AA69-C6C770204A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{541EB9A8-5609-433E-B0A7-1B8916E41D15}"/>
   <bookViews>
-    <workbookView xWindow="29370" yWindow="570" windowWidth="25500" windowHeight="15420" xr2:uid="{E1E8B6A3-2D68-4135-B728-777FFAF4B9D2}"/>
+    <workbookView xWindow="32220" yWindow="1425" windowWidth="22365" windowHeight="14775" activeTab="1" xr2:uid="{E1E8B6A3-2D68-4135-B728-777FFAF4B9D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable" sheetId="1" r:id="rId1"/>
-    <sheet name="Tutor-participants pairs" sheetId="2" r:id="rId2"/>
+    <sheet name="Tutor-participant pairs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+  <si>
+    <t xml:space="preserve">Week </t>
+  </si>
   <si>
     <t>Title</t>
   </si>
@@ -43,87 +48,84 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Time</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lead trainer </t>
   </si>
   <si>
+    <t>Week 1</t>
+  </si>
+  <si>
     <t>Basic Python concepts</t>
   </si>
   <si>
     <t>Lecture</t>
   </si>
   <si>
+    <t>Sergio Martinez Cuesta</t>
+  </si>
+  <si>
     <t>Throubleshooting software installations</t>
   </si>
   <si>
+    <t>Exercise recap</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
     <t>Writing and using functions</t>
   </si>
   <si>
+    <t>Samuel Howard Lewis</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
     <t>Data handling</t>
   </si>
   <si>
+    <t>Week 4</t>
+  </si>
+  <si>
     <t>Data visualisation</t>
   </si>
   <si>
+    <t>Week 5</t>
+  </si>
+  <si>
     <t>Data analysis &amp; modeling</t>
   </si>
   <si>
+    <t>Samuel Howard Lewis &amp; Daniel Roythorne</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
     <t>Introduction to machine learning</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week </t>
-  </si>
-  <si>
-    <t>Practical recap</t>
-  </si>
-  <si>
-    <t>Time (GMT +1)</t>
-  </si>
-  <si>
-    <t>Sergio Martinez Cuesta</t>
-  </si>
-  <si>
-    <t>Samuel Howard Lewis</t>
-  </si>
-  <si>
-    <t>Samuel Howard Lewis &amp; Daniel Roythorne</t>
+    <t>Tutors:</t>
+  </si>
+  <si>
+    <t>Daniel Roythorne</t>
   </si>
   <si>
     <t>David McKinney</t>
   </si>
   <si>
+    <t>Mark Porter</t>
+  </si>
+  <si>
+    <t>Ryan Whittaker</t>
+  </si>
+  <si>
     <t>Tim Hargreaves</t>
   </si>
   <si>
-    <t>Ryan Whittaker</t>
-  </si>
-  <si>
-    <t>Mark Porter</t>
-  </si>
-  <si>
-    <t>Daniel Roythorne</t>
-  </si>
-  <si>
-    <t>Trainers &amp; Tutors:</t>
-  </si>
-  <si>
     <t>Course participant</t>
   </si>
   <si>
@@ -133,9 +135,6 @@
     <t>Akhil Nair</t>
   </si>
   <si>
-    <t>Alexandra Umprecht</t>
-  </si>
-  <si>
     <t>Ben Carr</t>
   </si>
   <si>
@@ -169,9 +168,6 @@
     <t>Giulia Lambiase</t>
   </si>
   <si>
-    <t>Gustav Söderström</t>
-  </si>
-  <si>
     <t>Ioana Oprisiu</t>
   </si>
   <si>
@@ -217,12 +213,24 @@
     <t>Mi-Young Lee</t>
   </si>
   <si>
+    <t>Naganathan Muthuramalingam</t>
+  </si>
+  <si>
+    <t>Nagasanthoshi Nagarajan</t>
+  </si>
+  <si>
     <t>Nathan Pan-Doh</t>
   </si>
   <si>
     <t>Neil Mody</t>
   </si>
   <si>
+    <t>Nev Cope</t>
+  </si>
+  <si>
+    <t>Olga Obrezanova</t>
+  </si>
+  <si>
     <t>Paulius Mikulskis</t>
   </si>
   <si>
@@ -232,9 +240,18 @@
     <t>Praveen Kallamvalli Illam Sankaran</t>
   </si>
   <si>
+    <t>Radhika Tammana</t>
+  </si>
+  <si>
     <t>Rajiv Luthra</t>
   </si>
   <si>
+    <t xml:space="preserve">Sophia Cameron-Christie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gareth Griffin </t>
+  </si>
+  <si>
     <t>Randy Dai</t>
   </si>
   <si>
@@ -275,13 +292,16 @@
   </si>
   <si>
     <t>Yi-Ting Chang</t>
+  </si>
+  <si>
+    <t>Marielle Holmblad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,21 +313,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -333,8 +338,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -351,25 +359,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,309 +679,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4394AC-6327-4A03-91BD-D0FE7C8EEC66}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" style="6" customWidth="1"/>
-    <col min="6" max="7" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="9">
         <v>44004</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>0.625</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="9">
         <v>44004</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="9">
         <v>44008</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>0.625</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="D5" s="9">
         <v>44011</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>0.625</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="9">
         <v>44015</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>0.625</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="D7" s="9">
         <v>44018</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>0.625</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="9">
         <v>44022</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>0.625</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>5</v>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
       <c r="D9" s="9">
         <v>44025</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>0.625</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="9">
         <v>44029</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>0.625</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>5</v>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
       </c>
       <c r="D11" s="9">
         <v>44032</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>0.625</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="C12" t="s">
+        <v>11</v>
       </c>
       <c r="D12" s="9">
         <v>44036</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>0.625</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>5</v>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
       </c>
       <c r="D13" s="9">
         <v>44039</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>0.625</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="C14" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="9">
         <v>44043</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>0.625</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" ht="15">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15">
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:A22">
-    <sortCondition ref="A19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:B22">
+    <sortCondition ref="B16:B22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -995,443 +969,487 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BBDA4F-BB88-4D1E-ABE8-0BF03DAAD704}">
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E967832B-CEAE-49A7-84AE-0C45F9674E9E}">
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E40:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="14" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="14" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="14" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="13" t="s">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="13" t="s">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="13" t="s">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="s">
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="s">
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
+      <c r="B49" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="B50" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:A60">
+    <sortCondition ref="A58:A60"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="1ee89e71-04cd-405e-9ca3-99e020c1694d" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Keyword xmlns="44a56295-c29e-4898-8136-a54736c65b82" xsi:nil="true"/>
-    <Descriptions xmlns="44a56295-c29e-4898-8136-a54736c65b82" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002F66A14058BF6744B40C815FAA8DFAC1" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a39ddc0ce9d3078f4808bbe81e64275b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="44a56295-c29e-4898-8136-a54736c65b82" xmlns:ns3="a0722ed1-43aa-4b27-adb1-4c304171c182" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fef8b75d768a3c70f2938857dd9f9232" ns2:_="" ns3:_="">
     <xsd:import namespace="44a56295-c29e-4898-8136-a54736c65b82"/>
@@ -1610,52 +1628,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Keyword xmlns="44a56295-c29e-4898-8136-a54736c65b82" xsi:nil="true"/>
+    <Descriptions xmlns="44a56295-c29e-4898-8136-a54736c65b82" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="1ee89e71-04cd-405e-9ca3-99e020c1694d" ContentTypeId="0x0101" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC23EFBF-4242-4338-B00E-209A300A90FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA72897B-AFE9-4511-A17D-AD8136D09615}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE94D116-C1FC-4FE0-B966-3BA143F89249}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="44a56295-c29e-4898-8136-a54736c65b82"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E093A8F-5054-4C15-AF17-B8BFEA8EE956}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E093A8F-5054-4C15-AF17-B8BFEA8EE956}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="44a56295-c29e-4898-8136-a54736c65b82"/>
-    <ds:schemaRef ds:uri="a0722ed1-43aa-4b27-adb1-4c304171c182"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE94D116-C1FC-4FE0-B966-3BA143F89249}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA72897B-AFE9-4511-A17D-AD8136D09615}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC23EFBF-4242-4338-B00E-209A300A90FF}"/>
 </file>